--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nghihuynh/Desktop/BigDataChallenge2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE1F9096-23D9-1E41-8AA0-641CE91DDFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343F9DC-F31D-5847-96C8-CA0167AB3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="16100" windowHeight="18440" xr2:uid="{DE9A8EB5-C17C-F14F-A529-194BB66C5597}"/>
+    <workbookView xWindow="5220" yWindow="6840" windowWidth="16100" windowHeight="18440" xr2:uid="{DE9A8EB5-C17C-F14F-A529-194BB66C5597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>missing values</t>
   </si>
@@ -185,6 +185,39 @@
   </si>
   <si>
     <t>m: income</t>
+  </si>
+  <si>
+    <t>j: unemployment rate</t>
+  </si>
+  <si>
+    <t>l: income for some year, can be imputed</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>note: impute median upper middle income</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>note: impute median lower middle income</t>
+  </si>
+  <si>
+    <t>note: impute median high income</t>
+  </si>
+  <si>
+    <t>h,i</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>note: impute median low income</t>
   </si>
 </sst>
 </file>
@@ -213,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +256,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,11 +284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC280F7C-EAA5-C84B-B941-94207B695864}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,6 +837,86 @@
         <v>49</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
